--- a/ha-resource/01_design/02_api/設計書_2.0.健康情報API.xlsx
+++ b/ha-resource/01_design/02_api/設計書_2.0.健康情報API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\02_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9435A721-8B55-4577-A71B-866E226087B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725889CC-B3CF-4864-B6C1-1534CF878631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="4350" windowWidth="21600" windowHeight="12855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -1257,28 +1257,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1286,6 +1279,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2314,12 +2314,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -2329,60 +2377,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4009,8 +4009,8 @@
   </sheetPr>
   <dimension ref="A1:BK82"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -4018,7 +4018,7 @@
     <col min="1" max="63" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" ht="16.5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4150,7 +4150,7 @@
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="16.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4215,7 +4215,7 @@
       <c r="BJ3" s="5"/>
       <c r="BK3" s="5"/>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" ht="16.5">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -4282,7 +4282,7 @@
       <c r="BJ4" s="9"/>
       <c r="BK4" s="9"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4347,7 +4347,7 @@
       <c r="BJ5" s="5"/>
       <c r="BK5" s="5"/>
     </row>
-    <row r="6" spans="1:63" outlineLevel="1">
+    <row r="6" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A6" s="5"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -4414,10 +4414,10 @@
       <c r="BJ6" s="5"/>
       <c r="BK6" s="5"/>
     </row>
-    <row r="7" spans="1:63" outlineLevel="1">
+    <row r="7" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="150" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="135"/>
@@ -4425,7 +4425,7 @@
       <c r="F7" s="135"/>
       <c r="G7" s="135"/>
       <c r="H7" s="136"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="144" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="135"/>
@@ -4483,10 +4483,10 @@
       <c r="BJ7" s="5"/>
       <c r="BK7" s="5"/>
     </row>
-    <row r="8" spans="1:63" outlineLevel="1">
+    <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A8" s="5"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="150" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="135"/>
@@ -4494,7 +4494,7 @@
       <c r="F8" s="135"/>
       <c r="G8" s="135"/>
       <c r="H8" s="136"/>
-      <c r="I8" s="142" t="s">
+      <c r="I8" s="144" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="135"/>
@@ -4552,7 +4552,7 @@
       <c r="BJ8" s="5"/>
       <c r="BK8" s="5"/>
     </row>
-    <row r="9" spans="1:63" outlineLevel="1">
+    <row r="9" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A9" s="3"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
@@ -4619,11 +4619,11 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
     </row>
-    <row r="10" spans="1:63" outlineLevel="1">
+    <row r="10" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A10" s="3"/>
       <c r="B10" s="19"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="144" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="135"/>
@@ -4688,11 +4688,11 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
     </row>
-    <row r="11" spans="1:63" outlineLevel="1">
+    <row r="11" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="144" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="135"/>
@@ -4757,11 +4757,11 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
     </row>
-    <row r="12" spans="1:63" outlineLevel="1">
+    <row r="12" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A12" s="3"/>
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="144" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="135"/>
@@ -4826,7 +4826,7 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
     </row>
-    <row r="13" spans="1:63" outlineLevel="1">
+    <row r="13" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A13" s="5"/>
       <c r="B13" s="11" t="s">
         <v>25</v>
@@ -4907,9 +4907,9 @@
       <c r="I14" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="150"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
       <c r="M14" s="140" t="s">
         <v>28</v>
       </c>
@@ -4978,9 +4978,9 @@
       <c r="I15" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="150"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
       <c r="M15" s="140" t="s">
         <v>28</v>
       </c>
@@ -5035,7 +5035,7 @@
       <c r="BJ15" s="5"/>
       <c r="BK15" s="5"/>
     </row>
-    <row r="16" spans="1:63" outlineLevel="1">
+    <row r="16" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A16" s="5"/>
       <c r="B16" s="48"/>
       <c r="C16" s="36" t="s">
@@ -5046,7 +5046,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="142" t="s">
+      <c r="I16" s="144" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="135"/>
@@ -5106,7 +5106,7 @@
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
     </row>
-    <row r="17" spans="1:63" outlineLevel="1">
+    <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A17" s="5"/>
       <c r="B17" s="11" t="s">
         <v>52</v>
@@ -5173,7 +5173,7 @@
       <c r="BJ17" s="5"/>
       <c r="BK17" s="5"/>
     </row>
-    <row r="18" spans="1:63" outlineLevel="1">
+    <row r="18" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A18" s="5"/>
       <c r="B18" s="17"/>
       <c r="C18" s="36" t="s">
@@ -5244,7 +5244,7 @@
       <c r="BJ18" s="5"/>
       <c r="BK18" s="5"/>
     </row>
-    <row r="19" spans="1:63" outlineLevel="1">
+    <row r="19" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A19" s="5"/>
       <c r="B19" s="17"/>
       <c r="C19" s="54" t="s">
@@ -5311,7 +5311,7 @@
       <c r="BJ19" s="5"/>
       <c r="BK19" s="5"/>
     </row>
-    <row r="20" spans="1:63" outlineLevel="1">
+    <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A20" s="5"/>
       <c r="B20" s="17"/>
       <c r="C20" s="54"/>
@@ -5382,7 +5382,7 @@
       <c r="BJ20" s="5"/>
       <c r="BK20" s="5"/>
     </row>
-    <row r="21" spans="1:63" outlineLevel="1">
+    <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A21" s="5"/>
       <c r="B21" s="17"/>
       <c r="C21" s="56"/>
@@ -5453,7 +5453,7 @@
       <c r="BJ21" s="5"/>
       <c r="BK21" s="5"/>
     </row>
-    <row r="22" spans="1:63" outlineLevel="1">
+    <row r="22" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A22" s="5"/>
       <c r="B22" s="17"/>
       <c r="C22" s="58" t="s">
@@ -5520,7 +5520,7 @@
       <c r="BJ22" s="5"/>
       <c r="BK22" s="5"/>
     </row>
-    <row r="23" spans="1:63" outlineLevel="1">
+    <row r="23" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A23" s="5"/>
       <c r="B23" s="17"/>
       <c r="C23" s="59"/>
@@ -5591,7 +5591,7 @@
       <c r="BJ23" s="5"/>
       <c r="BK23" s="5"/>
     </row>
-    <row r="24" spans="1:63" outlineLevel="1">
+    <row r="24" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A24" s="5"/>
       <c r="B24" s="17"/>
       <c r="C24" s="60" t="s">
@@ -5658,7 +5658,7 @@
       <c r="BJ24" s="5"/>
       <c r="BK24" s="5"/>
     </row>
-    <row r="25" spans="1:63" outlineLevel="1">
+    <row r="25" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A25" s="5"/>
       <c r="B25" s="17"/>
       <c r="C25" s="61"/>
@@ -6013,7 +6013,7 @@
       <c r="BJ29" s="5"/>
       <c r="BK29" s="5"/>
     </row>
-    <row r="30" spans="1:63" outlineLevel="1">
+    <row r="30" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
       <c r="B30" s="17"/>
       <c r="C30" s="61"/>
@@ -6084,7 +6084,7 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
     </row>
-    <row r="31" spans="1:63" outlineLevel="1">
+    <row r="31" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A31" s="5"/>
       <c r="B31" s="31"/>
       <c r="C31" s="62"/>
@@ -6155,7 +6155,7 @@
       <c r="BJ31" s="5"/>
       <c r="BK31" s="5"/>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:63" ht="16.5">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6220,7 +6220,7 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="5"/>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:63" ht="16.5">
       <c r="A33" s="6" t="s">
         <v>154</v>
       </c>
@@ -6287,7 +6287,7 @@
       <c r="BJ33" s="9"/>
       <c r="BK33" s="9"/>
     </row>
-    <row r="34" spans="1:63">
+    <row r="34" spans="1:63" ht="16.5">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6352,7 +6352,7 @@
       <c r="BJ34" s="5"/>
       <c r="BK34" s="5"/>
     </row>
-    <row r="35" spans="1:63" outlineLevel="1">
+    <row r="35" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A35" s="63"/>
       <c r="B35" s="64" t="s">
         <v>80</v>
@@ -6478,25 +6478,25 @@
       <c r="AM36" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="AN36" s="151"/>
-      <c r="AO36" s="151"/>
-      <c r="AP36" s="151"/>
-      <c r="AQ36" s="151"/>
-      <c r="AR36" s="151"/>
-      <c r="AS36" s="151"/>
-      <c r="AT36" s="151"/>
-      <c r="AU36" s="151"/>
-      <c r="AV36" s="151"/>
-      <c r="AW36" s="151"/>
-      <c r="AX36" s="151"/>
-      <c r="AY36" s="151"/>
-      <c r="AZ36" s="151"/>
-      <c r="BA36" s="151"/>
-      <c r="BB36" s="151"/>
-      <c r="BC36" s="151"/>
-      <c r="BD36" s="151"/>
-      <c r="BE36" s="151"/>
-      <c r="BF36" s="152"/>
+      <c r="AN36" s="148"/>
+      <c r="AO36" s="148"/>
+      <c r="AP36" s="148"/>
+      <c r="AQ36" s="148"/>
+      <c r="AR36" s="148"/>
+      <c r="AS36" s="148"/>
+      <c r="AT36" s="148"/>
+      <c r="AU36" s="148"/>
+      <c r="AV36" s="148"/>
+      <c r="AW36" s="148"/>
+      <c r="AX36" s="148"/>
+      <c r="AY36" s="148"/>
+      <c r="AZ36" s="148"/>
+      <c r="BA36" s="148"/>
+      <c r="BB36" s="148"/>
+      <c r="BC36" s="148"/>
+      <c r="BD36" s="148"/>
+      <c r="BE36" s="148"/>
+      <c r="BF36" s="149"/>
       <c r="BG36" s="5"/>
       <c r="BH36" s="5"/>
       <c r="BI36" s="5"/>
@@ -6550,25 +6550,25 @@
       <c r="AM37" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="AN37" s="151"/>
-      <c r="AO37" s="151"/>
-      <c r="AP37" s="151"/>
-      <c r="AQ37" s="151"/>
-      <c r="AR37" s="151"/>
-      <c r="AS37" s="151"/>
-      <c r="AT37" s="151"/>
-      <c r="AU37" s="151"/>
-      <c r="AV37" s="151"/>
-      <c r="AW37" s="151"/>
-      <c r="AX37" s="151"/>
-      <c r="AY37" s="151"/>
-      <c r="AZ37" s="151"/>
-      <c r="BA37" s="151"/>
-      <c r="BB37" s="151"/>
-      <c r="BC37" s="151"/>
-      <c r="BD37" s="151"/>
-      <c r="BE37" s="151"/>
-      <c r="BF37" s="152"/>
+      <c r="AN37" s="148"/>
+      <c r="AO37" s="148"/>
+      <c r="AP37" s="148"/>
+      <c r="AQ37" s="148"/>
+      <c r="AR37" s="148"/>
+      <c r="AS37" s="148"/>
+      <c r="AT37" s="148"/>
+      <c r="AU37" s="148"/>
+      <c r="AV37" s="148"/>
+      <c r="AW37" s="148"/>
+      <c r="AX37" s="148"/>
+      <c r="AY37" s="148"/>
+      <c r="AZ37" s="148"/>
+      <c r="BA37" s="148"/>
+      <c r="BB37" s="148"/>
+      <c r="BC37" s="148"/>
+      <c r="BD37" s="148"/>
+      <c r="BE37" s="148"/>
+      <c r="BF37" s="149"/>
       <c r="BG37" s="5"/>
       <c r="BH37" s="5"/>
       <c r="BI37" s="5"/>
@@ -6622,25 +6622,25 @@
       <c r="AM38" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="AN38" s="151"/>
-      <c r="AO38" s="151"/>
-      <c r="AP38" s="151"/>
-      <c r="AQ38" s="151"/>
-      <c r="AR38" s="151"/>
-      <c r="AS38" s="151"/>
-      <c r="AT38" s="151"/>
-      <c r="AU38" s="151"/>
-      <c r="AV38" s="151"/>
-      <c r="AW38" s="151"/>
-      <c r="AX38" s="151"/>
-      <c r="AY38" s="151"/>
-      <c r="AZ38" s="151"/>
-      <c r="BA38" s="151"/>
-      <c r="BB38" s="151"/>
-      <c r="BC38" s="151"/>
-      <c r="BD38" s="151"/>
-      <c r="BE38" s="151"/>
-      <c r="BF38" s="152"/>
+      <c r="AN38" s="148"/>
+      <c r="AO38" s="148"/>
+      <c r="AP38" s="148"/>
+      <c r="AQ38" s="148"/>
+      <c r="AR38" s="148"/>
+      <c r="AS38" s="148"/>
+      <c r="AT38" s="148"/>
+      <c r="AU38" s="148"/>
+      <c r="AV38" s="148"/>
+      <c r="AW38" s="148"/>
+      <c r="AX38" s="148"/>
+      <c r="AY38" s="148"/>
+      <c r="AZ38" s="148"/>
+      <c r="BA38" s="148"/>
+      <c r="BB38" s="148"/>
+      <c r="BC38" s="148"/>
+      <c r="BD38" s="148"/>
+      <c r="BE38" s="148"/>
+      <c r="BF38" s="149"/>
       <c r="BG38" s="5"/>
       <c r="BH38" s="5"/>
       <c r="BI38" s="5"/>
@@ -6698,25 +6698,25 @@
       <c r="AM39" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="AN39" s="151"/>
-      <c r="AO39" s="151"/>
-      <c r="AP39" s="151"/>
-      <c r="AQ39" s="151"/>
-      <c r="AR39" s="151"/>
-      <c r="AS39" s="151"/>
-      <c r="AT39" s="151"/>
-      <c r="AU39" s="151"/>
-      <c r="AV39" s="151"/>
-      <c r="AW39" s="151"/>
-      <c r="AX39" s="151"/>
-      <c r="AY39" s="151"/>
-      <c r="AZ39" s="151"/>
-      <c r="BA39" s="151"/>
-      <c r="BB39" s="151"/>
-      <c r="BC39" s="151"/>
-      <c r="BD39" s="151"/>
-      <c r="BE39" s="151"/>
-      <c r="BF39" s="152"/>
+      <c r="AN39" s="148"/>
+      <c r="AO39" s="148"/>
+      <c r="AP39" s="148"/>
+      <c r="AQ39" s="148"/>
+      <c r="AR39" s="148"/>
+      <c r="AS39" s="148"/>
+      <c r="AT39" s="148"/>
+      <c r="AU39" s="148"/>
+      <c r="AV39" s="148"/>
+      <c r="AW39" s="148"/>
+      <c r="AX39" s="148"/>
+      <c r="AY39" s="148"/>
+      <c r="AZ39" s="148"/>
+      <c r="BA39" s="148"/>
+      <c r="BB39" s="148"/>
+      <c r="BC39" s="148"/>
+      <c r="BD39" s="148"/>
+      <c r="BE39" s="148"/>
+      <c r="BF39" s="149"/>
       <c r="BG39" s="5"/>
       <c r="BH39" s="5"/>
       <c r="BI39" s="5"/>
@@ -6774,32 +6774,32 @@
       <c r="AM40" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="AN40" s="151"/>
-      <c r="AO40" s="151"/>
-      <c r="AP40" s="151"/>
-      <c r="AQ40" s="151"/>
-      <c r="AR40" s="151"/>
-      <c r="AS40" s="151"/>
-      <c r="AT40" s="151"/>
-      <c r="AU40" s="151"/>
-      <c r="AV40" s="151"/>
-      <c r="AW40" s="151"/>
-      <c r="AX40" s="151"/>
-      <c r="AY40" s="151"/>
-      <c r="AZ40" s="151"/>
-      <c r="BA40" s="151"/>
-      <c r="BB40" s="151"/>
-      <c r="BC40" s="151"/>
-      <c r="BD40" s="151"/>
-      <c r="BE40" s="151"/>
-      <c r="BF40" s="152"/>
+      <c r="AN40" s="148"/>
+      <c r="AO40" s="148"/>
+      <c r="AP40" s="148"/>
+      <c r="AQ40" s="148"/>
+      <c r="AR40" s="148"/>
+      <c r="AS40" s="148"/>
+      <c r="AT40" s="148"/>
+      <c r="AU40" s="148"/>
+      <c r="AV40" s="148"/>
+      <c r="AW40" s="148"/>
+      <c r="AX40" s="148"/>
+      <c r="AY40" s="148"/>
+      <c r="AZ40" s="148"/>
+      <c r="BA40" s="148"/>
+      <c r="BB40" s="148"/>
+      <c r="BC40" s="148"/>
+      <c r="BD40" s="148"/>
+      <c r="BE40" s="148"/>
+      <c r="BF40" s="149"/>
       <c r="BG40" s="5"/>
       <c r="BH40" s="5"/>
       <c r="BI40" s="5"/>
       <c r="BJ40" s="5"/>
       <c r="BK40" s="5"/>
     </row>
-    <row r="41" spans="1:63" outlineLevel="1">
+    <row r="41" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A41" s="63"/>
       <c r="B41" s="71">
         <f t="shared" si="0"/>
@@ -6875,7 +6875,7 @@
       <c r="BJ41" s="5"/>
       <c r="BK41" s="5"/>
     </row>
-    <row r="42" spans="1:63" outlineLevel="1">
+    <row r="42" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A42" s="63"/>
       <c r="B42" s="71">
         <f t="shared" si="0"/>
@@ -6951,7 +6951,7 @@
       <c r="BJ42" s="5"/>
       <c r="BK42" s="5"/>
     </row>
-    <row r="43" spans="1:63" outlineLevel="1">
+    <row r="43" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A43" s="63"/>
       <c r="B43" s="71">
         <f t="shared" si="0"/>
@@ -7027,7 +7027,7 @@
       <c r="BJ43" s="5"/>
       <c r="BK43" s="5"/>
     </row>
-    <row r="44" spans="1:63">
+    <row r="44" spans="1:63" ht="16.5">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -7092,7 +7092,7 @@
       <c r="BJ44" s="5"/>
       <c r="BK44" s="5"/>
     </row>
-    <row r="45" spans="1:63">
+    <row r="45" spans="1:63" ht="16.5">
       <c r="A45" s="6" t="s">
         <v>105</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="BJ45" s="9"/>
       <c r="BK45" s="9"/>
     </row>
-    <row r="46" spans="1:63">
+    <row r="46" spans="1:63" ht="16.5">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -7224,7 +7224,7 @@
       <c r="BJ46" s="5"/>
       <c r="BK46" s="5"/>
     </row>
-    <row r="47" spans="1:63" outlineLevel="1">
+    <row r="47" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A47" s="5"/>
       <c r="B47" s="89" t="s">
         <v>106</v>
@@ -7291,7 +7291,7 @@
       <c r="BJ47" s="5"/>
       <c r="BK47" s="5"/>
     </row>
-    <row r="48" spans="1:63" outlineLevel="1">
+    <row r="48" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A48" s="5"/>
       <c r="B48" s="91"/>
       <c r="C48" s="92" t="s">
@@ -7358,7 +7358,7 @@
       <c r="BJ48" s="5"/>
       <c r="BK48" s="5"/>
     </row>
-    <row r="49" spans="1:63" outlineLevel="1">
+    <row r="49" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A49" s="5"/>
       <c r="B49" s="91"/>
       <c r="C49" s="93"/>
@@ -7425,7 +7425,7 @@
       <c r="BJ49" s="5"/>
       <c r="BK49" s="5"/>
     </row>
-    <row r="50" spans="1:63" outlineLevel="1">
+    <row r="50" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A50" s="5"/>
       <c r="B50" s="91"/>
       <c r="C50" s="92" t="s">
@@ -7492,7 +7492,7 @@
       <c r="BJ50" s="5"/>
       <c r="BK50" s="5"/>
     </row>
-    <row r="51" spans="1:63" outlineLevel="1">
+    <row r="51" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A51" s="5"/>
       <c r="B51" s="91"/>
       <c r="C51" s="93"/>
@@ -7559,7 +7559,7 @@
       <c r="BJ51" s="5"/>
       <c r="BK51" s="5"/>
     </row>
-    <row r="52" spans="1:63" outlineLevel="1">
+    <row r="52" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A52" s="5"/>
       <c r="B52" s="91"/>
       <c r="C52" s="92" t="s">
@@ -7626,7 +7626,7 @@
       <c r="BJ52" s="5"/>
       <c r="BK52" s="5"/>
     </row>
-    <row r="53" spans="1:63" outlineLevel="1">
+    <row r="53" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A53" s="5"/>
       <c r="B53" s="91"/>
       <c r="C53" s="93"/>
@@ -7693,7 +7693,7 @@
       <c r="BJ53" s="5"/>
       <c r="BK53" s="5"/>
     </row>
-    <row r="54" spans="1:63" outlineLevel="1">
+    <row r="54" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A54" s="5"/>
       <c r="B54" s="91"/>
       <c r="C54" s="5"/>
@@ -7758,7 +7758,7 @@
       <c r="BJ54" s="5"/>
       <c r="BK54" s="5"/>
     </row>
-    <row r="55" spans="1:63" outlineLevel="1">
+    <row r="55" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A55" s="5"/>
       <c r="B55" s="89" t="s">
         <v>113</v>
@@ -7825,7 +7825,7 @@
       <c r="BJ55" s="5"/>
       <c r="BK55" s="5"/>
     </row>
-    <row r="56" spans="1:63" outlineLevel="1">
+    <row r="56" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A56" s="5"/>
       <c r="B56" s="91"/>
       <c r="C56" s="92" t="s">
@@ -7892,7 +7892,7 @@
       <c r="BJ56" s="5"/>
       <c r="BK56" s="5"/>
     </row>
-    <row r="57" spans="1:63" outlineLevel="1">
+    <row r="57" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A57" s="5"/>
       <c r="B57" s="91"/>
       <c r="C57" s="93"/>
@@ -7959,7 +7959,7 @@
       <c r="BJ57" s="5"/>
       <c r="BK57" s="5"/>
     </row>
-    <row r="58" spans="1:63" outlineLevel="1">
+    <row r="58" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A58" s="5"/>
       <c r="B58" s="91"/>
       <c r="C58" s="92" t="s">
@@ -8026,7 +8026,7 @@
       <c r="BJ58" s="5"/>
       <c r="BK58" s="5"/>
     </row>
-    <row r="59" spans="1:63" outlineLevel="1">
+    <row r="59" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A59" s="5"/>
       <c r="B59" s="91"/>
       <c r="C59" s="93"/>
@@ -8093,7 +8093,7 @@
       <c r="BJ59" s="5"/>
       <c r="BK59" s="5"/>
     </row>
-    <row r="60" spans="1:63" outlineLevel="1">
+    <row r="60" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A60" s="5"/>
       <c r="B60" s="91"/>
       <c r="C60" s="92" t="s">
@@ -8160,7 +8160,7 @@
       <c r="BJ60" s="5"/>
       <c r="BK60" s="5"/>
     </row>
-    <row r="61" spans="1:63" outlineLevel="1">
+    <row r="61" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A61" s="5"/>
       <c r="B61" s="91"/>
       <c r="C61" s="93"/>
@@ -8227,7 +8227,7 @@
       <c r="BJ61" s="5"/>
       <c r="BK61" s="5"/>
     </row>
-    <row r="62" spans="1:63" outlineLevel="1">
+    <row r="62" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A62" s="5"/>
       <c r="B62" s="95"/>
       <c r="C62" s="92" t="s">
@@ -8294,7 +8294,7 @@
       <c r="BJ62" s="5"/>
       <c r="BK62" s="5"/>
     </row>
-    <row r="63" spans="1:63" outlineLevel="1">
+    <row r="63" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A63" s="5"/>
       <c r="B63" s="95"/>
       <c r="C63" s="93"/>
@@ -8361,7 +8361,7 @@
       <c r="BJ63" s="5"/>
       <c r="BK63" s="5"/>
     </row>
-    <row r="64" spans="1:63" outlineLevel="1">
+    <row r="64" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A64" s="5"/>
       <c r="B64" s="95"/>
       <c r="C64" s="92" t="s">
@@ -8428,7 +8428,7 @@
       <c r="BJ64" s="5"/>
       <c r="BK64" s="5"/>
     </row>
-    <row r="65" spans="1:63" outlineLevel="1">
+    <row r="65" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A65" s="5"/>
       <c r="B65" s="95"/>
       <c r="C65" s="5"/>
@@ -8493,7 +8493,7 @@
       <c r="BJ65" s="5"/>
       <c r="BK65" s="5"/>
     </row>
-    <row r="66" spans="1:63" outlineLevel="1">
+    <row r="66" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A66" s="5"/>
       <c r="B66" s="95" t="s">
         <v>118</v>
@@ -8560,7 +8560,7 @@
       <c r="BJ66" s="5"/>
       <c r="BK66" s="5"/>
     </row>
-    <row r="67" spans="1:63" outlineLevel="1">
+    <row r="67" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A67" s="5"/>
       <c r="B67" s="96"/>
       <c r="C67" s="98" t="s">
@@ -8635,7 +8635,7 @@
       <c r="BJ67" s="5"/>
       <c r="BK67" s="5"/>
     </row>
-    <row r="68" spans="1:63" outlineLevel="1">
+    <row r="68" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A68" s="5"/>
       <c r="B68" s="96"/>
       <c r="C68" s="105"/>
@@ -8706,7 +8706,7 @@
       <c r="BJ68" s="5"/>
       <c r="BK68" s="5"/>
     </row>
-    <row r="69" spans="1:63" outlineLevel="1">
+    <row r="69" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A69" s="5"/>
       <c r="B69" s="96"/>
       <c r="C69" s="56" t="s">
@@ -8777,7 +8777,7 @@
       <c r="BJ69" s="5"/>
       <c r="BK69" s="5"/>
     </row>
-    <row r="70" spans="1:63" outlineLevel="1">
+    <row r="70" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="56" t="s">
@@ -8848,7 +8848,7 @@
       <c r="BJ70" s="5"/>
       <c r="BK70" s="5"/>
     </row>
-    <row r="71" spans="1:63" outlineLevel="1">
+    <row r="71" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A71" s="5"/>
       <c r="B71" s="96"/>
       <c r="C71" s="56" t="s">
@@ -8919,7 +8919,7 @@
       <c r="BJ71" s="5"/>
       <c r="BK71" s="5"/>
     </row>
-    <row r="72" spans="1:63" outlineLevel="1">
+    <row r="72" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A72" s="5"/>
       <c r="B72" s="96"/>
       <c r="C72" s="105"/>
@@ -8988,7 +8988,7 @@
       <c r="BJ72" s="5"/>
       <c r="BK72" s="5"/>
     </row>
-    <row r="73" spans="1:63" outlineLevel="1">
+    <row r="73" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A73" s="5"/>
       <c r="B73" s="96"/>
       <c r="C73" s="105"/>
@@ -9079,27 +9079,27 @@
       <c r="O74" s="106"/>
       <c r="P74" s="106"/>
       <c r="Q74" s="107"/>
-      <c r="R74" s="148" t="s">
+      <c r="R74" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="S74" s="144"/>
-      <c r="T74" s="144"/>
-      <c r="U74" s="144"/>
-      <c r="V74" s="144"/>
-      <c r="W74" s="144"/>
-      <c r="X74" s="144"/>
-      <c r="Y74" s="144"/>
-      <c r="Z74" s="144"/>
-      <c r="AA74" s="144"/>
-      <c r="AB74" s="144"/>
-      <c r="AC74" s="144"/>
-      <c r="AD74" s="144"/>
-      <c r="AE74" s="144"/>
-      <c r="AF74" s="144"/>
-      <c r="AG74" s="144"/>
-      <c r="AH74" s="144"/>
-      <c r="AI74" s="144"/>
-      <c r="AJ74" s="144"/>
+      <c r="S74" s="146"/>
+      <c r="T74" s="146"/>
+      <c r="U74" s="146"/>
+      <c r="V74" s="146"/>
+      <c r="W74" s="146"/>
+      <c r="X74" s="146"/>
+      <c r="Y74" s="146"/>
+      <c r="Z74" s="146"/>
+      <c r="AA74" s="146"/>
+      <c r="AB74" s="146"/>
+      <c r="AC74" s="146"/>
+      <c r="AD74" s="146"/>
+      <c r="AE74" s="146"/>
+      <c r="AF74" s="146"/>
+      <c r="AG74" s="146"/>
+      <c r="AH74" s="146"/>
+      <c r="AI74" s="146"/>
+      <c r="AJ74" s="146"/>
       <c r="AK74" s="112"/>
       <c r="AL74" s="109"/>
       <c r="AM74" s="109"/>
@@ -9130,7 +9130,7 @@
       <c r="BJ74" s="5"/>
       <c r="BK74" s="5"/>
     </row>
-    <row r="75" spans="1:63" outlineLevel="1">
+    <row r="75" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A75" s="5"/>
       <c r="B75" s="96"/>
       <c r="C75" s="105"/>
@@ -9199,7 +9199,7 @@
       <c r="BJ75" s="5"/>
       <c r="BK75" s="5"/>
     </row>
-    <row r="76" spans="1:63" outlineLevel="1">
+    <row r="76" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A76" s="5"/>
       <c r="B76" s="96"/>
       <c r="C76" s="105"/>
@@ -9268,7 +9268,7 @@
       <c r="BJ76" s="5"/>
       <c r="BK76" s="5"/>
     </row>
-    <row r="77" spans="1:63" outlineLevel="1">
+    <row r="77" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A77" s="5"/>
       <c r="B77" s="96"/>
       <c r="C77" s="105"/>
@@ -9337,7 +9337,7 @@
       <c r="BJ77" s="5"/>
       <c r="BK77" s="5"/>
     </row>
-    <row r="78" spans="1:63" outlineLevel="1">
+    <row r="78" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A78" s="5"/>
       <c r="B78" s="91"/>
       <c r="C78" s="5"/>
@@ -9402,7 +9402,7 @@
       <c r="BJ78" s="5"/>
       <c r="BK78" s="5"/>
     </row>
-    <row r="79" spans="1:63">
+    <row r="79" spans="1:63" ht="16.5">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -9467,7 +9467,7 @@
       <c r="BJ79" s="5"/>
       <c r="BK79" s="5"/>
     </row>
-    <row r="80" spans="1:63">
+    <row r="80" spans="1:63" ht="16.5">
       <c r="A80" s="6" t="s">
         <v>139</v>
       </c>
@@ -9534,7 +9534,7 @@
       <c r="BJ80" s="2"/>
       <c r="BK80" s="2"/>
     </row>
-    <row r="81" spans="1:63">
+    <row r="81" spans="1:63" ht="16.5">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -9599,7 +9599,7 @@
       <c r="BJ81" s="5"/>
       <c r="BK81" s="5"/>
     </row>
-    <row r="82" spans="1:63">
+    <row r="82" spans="1:63" ht="16.5">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -9666,11 +9666,27 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:AS8"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:AS7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="AM36:BF36"/>
+    <mergeCell ref="AM37:BF37"/>
+    <mergeCell ref="AM38:BF38"/>
+    <mergeCell ref="AM39:BF39"/>
+    <mergeCell ref="AM40:BF40"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="R74:AJ74"/>
     <mergeCell ref="I31:L31"/>
@@ -9685,28 +9701,12 @@
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="M30:P30"/>
-    <mergeCell ref="AM36:BF36"/>
-    <mergeCell ref="AM37:BF37"/>
-    <mergeCell ref="AM38:BF38"/>
-    <mergeCell ref="AM39:BF39"/>
-    <mergeCell ref="AM40:BF40"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:AS8"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:AS7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="I14:L14"/>
     <mergeCell ref="M25:P25"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D10:H10"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9744,8 +9744,8 @@
   </sheetPr>
   <dimension ref="A1:BK64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="G35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA62" sqref="AA62"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -10159,7 +10159,7 @@
     <row r="7" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="150" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="135"/>
@@ -10167,7 +10167,7 @@
       <c r="F7" s="135"/>
       <c r="G7" s="135"/>
       <c r="H7" s="136"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="144" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="135"/>
@@ -10228,7 +10228,7 @@
     <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A8" s="5"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="150" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="135"/>
@@ -10236,7 +10236,7 @@
       <c r="F8" s="135"/>
       <c r="G8" s="135"/>
       <c r="H8" s="136"/>
-      <c r="I8" s="142" t="s">
+      <c r="I8" s="144" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="135"/>
@@ -10365,7 +10365,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="17"/>
       <c r="C10" s="82"/>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="144" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="135"/>
@@ -10434,7 +10434,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="144" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="135"/>
@@ -10575,7 +10575,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="142"/>
+      <c r="I13" s="144"/>
       <c r="J13" s="135"/>
       <c r="K13" s="135"/>
       <c r="L13" s="136"/>
@@ -12003,25 +12003,25 @@
       <c r="AM33" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="AN33" s="144"/>
-      <c r="AO33" s="144"/>
-      <c r="AP33" s="144"/>
-      <c r="AQ33" s="144"/>
-      <c r="AR33" s="144"/>
-      <c r="AS33" s="144"/>
-      <c r="AT33" s="144"/>
-      <c r="AU33" s="144"/>
-      <c r="AV33" s="144"/>
-      <c r="AW33" s="144"/>
-      <c r="AX33" s="144"/>
-      <c r="AY33" s="144"/>
-      <c r="AZ33" s="144"/>
-      <c r="BA33" s="144"/>
-      <c r="BB33" s="144"/>
-      <c r="BC33" s="144"/>
-      <c r="BD33" s="144"/>
-      <c r="BE33" s="144"/>
-      <c r="BF33" s="145"/>
+      <c r="AN33" s="146"/>
+      <c r="AO33" s="146"/>
+      <c r="AP33" s="146"/>
+      <c r="AQ33" s="146"/>
+      <c r="AR33" s="146"/>
+      <c r="AS33" s="146"/>
+      <c r="AT33" s="146"/>
+      <c r="AU33" s="146"/>
+      <c r="AV33" s="146"/>
+      <c r="AW33" s="146"/>
+      <c r="AX33" s="146"/>
+      <c r="AY33" s="146"/>
+      <c r="AZ33" s="146"/>
+      <c r="BA33" s="146"/>
+      <c r="BB33" s="146"/>
+      <c r="BC33" s="146"/>
+      <c r="BD33" s="146"/>
+      <c r="BE33" s="146"/>
+      <c r="BF33" s="152"/>
       <c r="BG33" s="46"/>
       <c r="BH33" s="46"/>
       <c r="BI33" s="46"/>
@@ -12075,25 +12075,25 @@
       <c r="AM34" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="AN34" s="144"/>
-      <c r="AO34" s="144"/>
-      <c r="AP34" s="144"/>
-      <c r="AQ34" s="144"/>
-      <c r="AR34" s="144"/>
-      <c r="AS34" s="144"/>
-      <c r="AT34" s="144"/>
-      <c r="AU34" s="144"/>
-      <c r="AV34" s="144"/>
-      <c r="AW34" s="144"/>
-      <c r="AX34" s="144"/>
-      <c r="AY34" s="144"/>
-      <c r="AZ34" s="144"/>
-      <c r="BA34" s="144"/>
-      <c r="BB34" s="144"/>
-      <c r="BC34" s="144"/>
-      <c r="BD34" s="144"/>
-      <c r="BE34" s="144"/>
-      <c r="BF34" s="145"/>
+      <c r="AN34" s="146"/>
+      <c r="AO34" s="146"/>
+      <c r="AP34" s="146"/>
+      <c r="AQ34" s="146"/>
+      <c r="AR34" s="146"/>
+      <c r="AS34" s="146"/>
+      <c r="AT34" s="146"/>
+      <c r="AU34" s="146"/>
+      <c r="AV34" s="146"/>
+      <c r="AW34" s="146"/>
+      <c r="AX34" s="146"/>
+      <c r="AY34" s="146"/>
+      <c r="AZ34" s="146"/>
+      <c r="BA34" s="146"/>
+      <c r="BB34" s="146"/>
+      <c r="BC34" s="146"/>
+      <c r="BD34" s="146"/>
+      <c r="BE34" s="146"/>
+      <c r="BF34" s="152"/>
       <c r="BG34" s="46"/>
       <c r="BH34" s="46"/>
       <c r="BI34" s="46"/>
@@ -12147,25 +12147,25 @@
       <c r="AM35" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="AN35" s="144"/>
-      <c r="AO35" s="144"/>
-      <c r="AP35" s="144"/>
-      <c r="AQ35" s="144"/>
-      <c r="AR35" s="144"/>
-      <c r="AS35" s="144"/>
-      <c r="AT35" s="144"/>
-      <c r="AU35" s="144"/>
-      <c r="AV35" s="144"/>
-      <c r="AW35" s="144"/>
-      <c r="AX35" s="144"/>
-      <c r="AY35" s="144"/>
-      <c r="AZ35" s="144"/>
-      <c r="BA35" s="144"/>
-      <c r="BB35" s="144"/>
-      <c r="BC35" s="144"/>
-      <c r="BD35" s="144"/>
-      <c r="BE35" s="144"/>
-      <c r="BF35" s="145"/>
+      <c r="AN35" s="146"/>
+      <c r="AO35" s="146"/>
+      <c r="AP35" s="146"/>
+      <c r="AQ35" s="146"/>
+      <c r="AR35" s="146"/>
+      <c r="AS35" s="146"/>
+      <c r="AT35" s="146"/>
+      <c r="AU35" s="146"/>
+      <c r="AV35" s="146"/>
+      <c r="AW35" s="146"/>
+      <c r="AX35" s="146"/>
+      <c r="AY35" s="146"/>
+      <c r="AZ35" s="146"/>
+      <c r="BA35" s="146"/>
+      <c r="BB35" s="146"/>
+      <c r="BC35" s="146"/>
+      <c r="BD35" s="146"/>
+      <c r="BE35" s="146"/>
+      <c r="BF35" s="152"/>
       <c r="BG35" s="46"/>
       <c r="BH35" s="46"/>
       <c r="BI35" s="46"/>
@@ -12223,25 +12223,25 @@
       <c r="AM36" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="AN36" s="144"/>
-      <c r="AO36" s="144"/>
-      <c r="AP36" s="144"/>
-      <c r="AQ36" s="144"/>
-      <c r="AR36" s="144"/>
-      <c r="AS36" s="144"/>
-      <c r="AT36" s="144"/>
-      <c r="AU36" s="144"/>
-      <c r="AV36" s="144"/>
-      <c r="AW36" s="144"/>
-      <c r="AX36" s="144"/>
-      <c r="AY36" s="144"/>
-      <c r="AZ36" s="144"/>
-      <c r="BA36" s="144"/>
-      <c r="BB36" s="144"/>
-      <c r="BC36" s="144"/>
-      <c r="BD36" s="144"/>
-      <c r="BE36" s="144"/>
-      <c r="BF36" s="145"/>
+      <c r="AN36" s="146"/>
+      <c r="AO36" s="146"/>
+      <c r="AP36" s="146"/>
+      <c r="AQ36" s="146"/>
+      <c r="AR36" s="146"/>
+      <c r="AS36" s="146"/>
+      <c r="AT36" s="146"/>
+      <c r="AU36" s="146"/>
+      <c r="AV36" s="146"/>
+      <c r="AW36" s="146"/>
+      <c r="AX36" s="146"/>
+      <c r="AY36" s="146"/>
+      <c r="AZ36" s="146"/>
+      <c r="BA36" s="146"/>
+      <c r="BB36" s="146"/>
+      <c r="BC36" s="146"/>
+      <c r="BD36" s="146"/>
+      <c r="BE36" s="146"/>
+      <c r="BF36" s="152"/>
       <c r="BG36" s="46"/>
       <c r="BH36" s="46"/>
       <c r="BI36" s="46"/>
@@ -12299,25 +12299,25 @@
       <c r="AM37" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="AN37" s="144"/>
-      <c r="AO37" s="144"/>
-      <c r="AP37" s="144"/>
-      <c r="AQ37" s="144"/>
-      <c r="AR37" s="144"/>
-      <c r="AS37" s="144"/>
-      <c r="AT37" s="144"/>
-      <c r="AU37" s="144"/>
-      <c r="AV37" s="144"/>
-      <c r="AW37" s="144"/>
-      <c r="AX37" s="144"/>
-      <c r="AY37" s="144"/>
-      <c r="AZ37" s="144"/>
-      <c r="BA37" s="144"/>
-      <c r="BB37" s="144"/>
-      <c r="BC37" s="144"/>
-      <c r="BD37" s="144"/>
-      <c r="BE37" s="144"/>
-      <c r="BF37" s="145"/>
+      <c r="AN37" s="146"/>
+      <c r="AO37" s="146"/>
+      <c r="AP37" s="146"/>
+      <c r="AQ37" s="146"/>
+      <c r="AR37" s="146"/>
+      <c r="AS37" s="146"/>
+      <c r="AT37" s="146"/>
+      <c r="AU37" s="146"/>
+      <c r="AV37" s="146"/>
+      <c r="AW37" s="146"/>
+      <c r="AX37" s="146"/>
+      <c r="AY37" s="146"/>
+      <c r="AZ37" s="146"/>
+      <c r="BA37" s="146"/>
+      <c r="BB37" s="146"/>
+      <c r="BC37" s="146"/>
+      <c r="BD37" s="146"/>
+      <c r="BE37" s="146"/>
+      <c r="BF37" s="152"/>
       <c r="BG37" s="46"/>
       <c r="BH37" s="46"/>
       <c r="BI37" s="46"/>
@@ -12375,25 +12375,25 @@
       <c r="AM38" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="AN38" s="144"/>
-      <c r="AO38" s="144"/>
-      <c r="AP38" s="144"/>
-      <c r="AQ38" s="144"/>
-      <c r="AR38" s="144"/>
-      <c r="AS38" s="144"/>
-      <c r="AT38" s="144"/>
-      <c r="AU38" s="144"/>
-      <c r="AV38" s="144"/>
-      <c r="AW38" s="144"/>
-      <c r="AX38" s="144"/>
-      <c r="AY38" s="144"/>
-      <c r="AZ38" s="144"/>
-      <c r="BA38" s="144"/>
-      <c r="BB38" s="144"/>
-      <c r="BC38" s="144"/>
-      <c r="BD38" s="144"/>
-      <c r="BE38" s="144"/>
-      <c r="BF38" s="145"/>
+      <c r="AN38" s="146"/>
+      <c r="AO38" s="146"/>
+      <c r="AP38" s="146"/>
+      <c r="AQ38" s="146"/>
+      <c r="AR38" s="146"/>
+      <c r="AS38" s="146"/>
+      <c r="AT38" s="146"/>
+      <c r="AU38" s="146"/>
+      <c r="AV38" s="146"/>
+      <c r="AW38" s="146"/>
+      <c r="AX38" s="146"/>
+      <c r="AY38" s="146"/>
+      <c r="AZ38" s="146"/>
+      <c r="BA38" s="146"/>
+      <c r="BB38" s="146"/>
+      <c r="BC38" s="146"/>
+      <c r="BD38" s="146"/>
+      <c r="BE38" s="146"/>
+      <c r="BF38" s="152"/>
       <c r="BG38" s="46"/>
       <c r="BH38" s="46"/>
       <c r="BI38" s="46"/>
@@ -12447,25 +12447,25 @@
       <c r="AM39" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="AN39" s="144"/>
-      <c r="AO39" s="144"/>
-      <c r="AP39" s="144"/>
-      <c r="AQ39" s="144"/>
-      <c r="AR39" s="144"/>
-      <c r="AS39" s="144"/>
-      <c r="AT39" s="144"/>
-      <c r="AU39" s="144"/>
-      <c r="AV39" s="144"/>
-      <c r="AW39" s="144"/>
-      <c r="AX39" s="144"/>
-      <c r="AY39" s="144"/>
-      <c r="AZ39" s="144"/>
-      <c r="BA39" s="144"/>
-      <c r="BB39" s="144"/>
-      <c r="BC39" s="144"/>
-      <c r="BD39" s="144"/>
-      <c r="BE39" s="144"/>
-      <c r="BF39" s="145"/>
+      <c r="AN39" s="146"/>
+      <c r="AO39" s="146"/>
+      <c r="AP39" s="146"/>
+      <c r="AQ39" s="146"/>
+      <c r="AR39" s="146"/>
+      <c r="AS39" s="146"/>
+      <c r="AT39" s="146"/>
+      <c r="AU39" s="146"/>
+      <c r="AV39" s="146"/>
+      <c r="AW39" s="146"/>
+      <c r="AX39" s="146"/>
+      <c r="AY39" s="146"/>
+      <c r="AZ39" s="146"/>
+      <c r="BA39" s="146"/>
+      <c r="BB39" s="146"/>
+      <c r="BC39" s="146"/>
+      <c r="BD39" s="146"/>
+      <c r="BE39" s="146"/>
+      <c r="BF39" s="152"/>
       <c r="BG39" s="46"/>
       <c r="BH39" s="46"/>
       <c r="BI39" s="46"/>
@@ -12520,28 +12520,28 @@
       <c r="AJ40" s="126"/>
       <c r="AK40" s="126"/>
       <c r="AL40" s="127"/>
-      <c r="AM40" s="146" t="s">
+      <c r="AM40" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="AN40" s="144"/>
-      <c r="AO40" s="144"/>
-      <c r="AP40" s="144"/>
-      <c r="AQ40" s="144"/>
-      <c r="AR40" s="144"/>
-      <c r="AS40" s="144"/>
-      <c r="AT40" s="144"/>
-      <c r="AU40" s="144"/>
-      <c r="AV40" s="144"/>
-      <c r="AW40" s="144"/>
-      <c r="AX40" s="144"/>
-      <c r="AY40" s="144"/>
-      <c r="AZ40" s="144"/>
-      <c r="BA40" s="144"/>
-      <c r="BB40" s="144"/>
-      <c r="BC40" s="144"/>
-      <c r="BD40" s="144"/>
-      <c r="BE40" s="144"/>
-      <c r="BF40" s="145"/>
+      <c r="AN40" s="146"/>
+      <c r="AO40" s="146"/>
+      <c r="AP40" s="146"/>
+      <c r="AQ40" s="146"/>
+      <c r="AR40" s="146"/>
+      <c r="AS40" s="146"/>
+      <c r="AT40" s="146"/>
+      <c r="AU40" s="146"/>
+      <c r="AV40" s="146"/>
+      <c r="AW40" s="146"/>
+      <c r="AX40" s="146"/>
+      <c r="AY40" s="146"/>
+      <c r="AZ40" s="146"/>
+      <c r="BA40" s="146"/>
+      <c r="BB40" s="146"/>
+      <c r="BC40" s="146"/>
+      <c r="BD40" s="146"/>
+      <c r="BE40" s="146"/>
+      <c r="BF40" s="152"/>
       <c r="BG40" s="46"/>
       <c r="BH40" s="46"/>
       <c r="BI40" s="46"/>
@@ -14146,6 +14146,33 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I8:AS8"/>
+    <mergeCell ref="I7:AS7"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="AM34:BF34"/>
     <mergeCell ref="AM40:BF40"/>
     <mergeCell ref="AM33:BF33"/>
     <mergeCell ref="M25:P25"/>
@@ -14157,33 +14184,6 @@
     <mergeCell ref="AM37:BF37"/>
     <mergeCell ref="AM38:BF38"/>
     <mergeCell ref="AM39:BF39"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="AM34:BF34"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I8:AS8"/>
-    <mergeCell ref="I7:AS7"/>
-    <mergeCell ref="I13:L13"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
